--- a/biology/Histoire de la zoologie et de la botanique/Fernand_Noc/Fernand_Noc.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fernand_Noc/Fernand_Noc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fernand-Edmond Noc est un médecin et biologiste français né à Moussac (Gard) le 18 décembre 1875 et mort à Paris le 17 mars 1924[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fernand-Edmond Noc est un médecin et biologiste français né à Moussac (Gard) le 18 décembre 1875 et mort à Paris le 17 mars 1924. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fernand Noc, né en 1875 à Moussac  dans le département du Gard, commence sa carrière dans les laboratoires de bactériologie des colonies françaises (Nouméa, Saigon, Martinique) avant de devenir directeur de l'institut de biologie de l'Afrique-Occidentale française à Dakar[2].
-En tant que médecin des troupes coloniales, il a disséqué un Macacus cynomolgus, ou Macaque crabier, récolté des individus et les a envoyés au professeur de parasitologie Théodore Barrois à la faculté de médecine de Lille. Il a découvert une espèce de vers parasites trématodes qui a été nommée en son honneur Chiorchis noci[3] (famille des Paramphistomatidae (en)).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fernand Noc, né en 1875 à Moussac  dans le département du Gard, commence sa carrière dans les laboratoires de bactériologie des colonies françaises (Nouméa, Saigon, Martinique) avant de devenir directeur de l'institut de biologie de l'Afrique-Occidentale française à Dakar.
+En tant que médecin des troupes coloniales, il a disséqué un Macacus cynomolgus, ou Macaque crabier, récolté des individus et les a envoyés au professeur de parasitologie Théodore Barrois à la faculté de médecine de Lille. Il a découvert une espèce de vers parasites trématodes qui a été nommée en son honneur Chiorchis noci (famille des Paramphistomatidae (en)).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nos devoirs envers les lépreux au XXe siècle, Paris, Comité du secours aux lépreux , 1923, 12 p.
- Journal of Tropical Medicine and Hygiene, 1922, Vol.25, No.17, pp.276-280 (avec George S. GIGMOLI)  (ISSN 0022-5304)[4]
+ Journal of Tropical Medicine and Hygiene, 1922, Vol.25, No.17, pp.276-280 (avec George S. GIGMOLI)  (ISSN 0022-5304)
 Étude anatomique des ganglions nerveux du cœur chez le chien et de leurs modifications dans l'intoxication diphtérique expérimentale aiguë, Bordeaux, Cadoret, 1899</t>
         </is>
       </c>
